--- a/data/1234.xlsx
+++ b/data/1234.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamin\Desktop\JSON_VERSION\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB88D8E-FDAC-417F-9D70-9DEBEE5DB0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAAD426-FCD4-405D-A6F8-7E03770D6748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Учебный план" sheetId="1" r:id="rId1"/>
     <sheet name="Учителя" sheetId="2" r:id="rId2"/>
+    <sheet name="Типы аудиторий" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
   <si>
     <t>Кол-во уроков в день макс.</t>
   </si>
@@ -174,6 +175,110 @@
   </si>
   <si>
     <t>Антипова Мария Ивановна</t>
+  </si>
+  <si>
+    <t>Типы аудиторий
+ введите в столбце "B",
+начиная с ячейки B3</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>ИТ-класс</t>
+  </si>
+  <si>
+    <t>Спортзал</t>
+  </si>
+  <si>
+    <t>Малая аудитория</t>
+  </si>
+  <si>
+    <t>Большая аудитория</t>
+  </si>
+  <si>
+    <t>Кабнет биологии</t>
   </si>
 </sst>
 </file>
@@ -227,11 +332,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,9 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -583,36 +689,6 @@
         <v>11</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
@@ -649,18 +725,12 @@
         <v>17</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="G9">
-        <v>3</v>
-      </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="L10">
-        <v>3</v>
-      </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
@@ -731,9 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -786,36 +854,6 @@
         <v>11</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -870,9 +908,6 @@
         <v>17</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -882,9 +917,6 @@
         <v>18</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="L10" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -994,4 +1026,303 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="7" max="8" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>$B$3:$B$120</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>